--- a/ensemble_algorithm/ensemble_results_digits.xlsx
+++ b/ensemble_algorithm/ensemble_results_digits.xlsx
@@ -455,10 +455,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -650,10 +650,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -754,10 +754,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -923,10 +923,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -936,10 +936,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -988,10 +988,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1040,10 +1040,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1170,10 +1170,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1300,10 +1300,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1313,10 +1313,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1352,10 +1352,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1378,10 +1378,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1391,10 +1391,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1588,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1636,7 +1636,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1700,7 +1700,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1884,7 +1884,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1916,7 +1916,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2054,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2070,7 +2070,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2126,7 +2126,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2142,7 +2142,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2158,7 +2158,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2166,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2174,7 +2174,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2182,7 +2182,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2190,7 +2190,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2206,7 +2206,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2254,7 +2254,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2270,7 +2270,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2278,7 +2278,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2294,7 +2294,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2302,7 +2302,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2310,7 +2310,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2318,7 +2318,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2326,7 +2326,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2342,7 +2342,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2350,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2382,7 +2382,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2390,7 +2390,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2398,7 +2398,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2406,7 +2406,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2422,7 +2422,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2438,7 +2438,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2454,7 +2454,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2486,7 +2486,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2502,7 +2502,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2542,7 +2542,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2550,7 +2550,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2558,7 +2558,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2582,7 +2582,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2614,7 +2614,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2630,7 +2630,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2654,7 +2654,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2694,7 +2694,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2702,7 +2702,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2710,7 +2710,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2718,7 +2718,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2726,7 +2726,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2742,7 +2742,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -2774,7 +2774,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2814,7 +2814,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2830,7 +2830,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2854,7 +2854,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2886,7 +2886,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2902,7 +2902,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -2910,7 +2910,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2918,7 +2918,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -2926,7 +2926,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2942,7 +2942,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2958,7 +2958,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2966,7 +2966,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2990,7 +2990,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -3006,7 +3006,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -3038,7 +3038,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3046,7 +3046,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3078,7 +3078,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3086,7 +3086,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3102,7 +3102,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3110,7 +3110,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3118,7 +3118,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -3134,7 +3134,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -3142,7 +3142,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -3190,7 +3190,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3198,7 +3198,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3222,7 +3222,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3238,7 +3238,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3246,7 +3246,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3286,7 +3286,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3294,7 +3294,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3310,7 +3310,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -3326,7 +3326,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3334,7 +3334,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3350,7 +3350,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3382,7 +3382,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3390,7 +3390,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3398,7 +3398,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3422,7 +3422,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -3470,7 +3470,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -3486,7 +3486,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -3494,7 +3494,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3542,7 +3542,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -3550,7 +3550,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -3566,7 +3566,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -3582,7 +3582,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3590,7 +3590,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -3598,7 +3598,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -3606,7 +3606,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -3638,7 +3638,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -3646,7 +3646,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -3678,7 +3678,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -3702,7 +3702,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -3726,7 +3726,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -3766,7 +3766,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -3774,7 +3774,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -3782,7 +3782,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3790,7 +3790,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3798,7 +3798,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -3822,7 +3822,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3830,7 +3830,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -3838,7 +3838,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -3846,7 +3846,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -3854,7 +3854,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -3862,7 +3862,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -3910,7 +3910,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -3934,7 +3934,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -3942,7 +3942,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -3966,7 +3966,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -3974,7 +3974,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -3990,7 +3990,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -3998,7 +3998,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -4006,7 +4006,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -4014,7 +4014,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -4030,7 +4030,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -4038,7 +4038,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -4070,7 +4070,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -4078,7 +4078,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -4086,7 +4086,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -4102,7 +4102,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -4110,7 +4110,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -4126,7 +4126,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -4134,7 +4134,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -4142,7 +4142,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -4150,7 +4150,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -4166,7 +4166,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -4190,7 +4190,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -4198,7 +4198,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -4230,7 +4230,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -4270,7 +4270,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -4278,7 +4278,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -4310,7 +4310,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4342,7 +4342,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4374,7 +4374,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -4390,7 +4390,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -4398,7 +4398,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -4422,7 +4422,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -4438,7 +4438,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -4462,7 +4462,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -4470,7 +4470,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -4478,7 +4478,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -4494,7 +4494,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -4502,7 +4502,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -4510,7 +4510,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -4526,7 +4526,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -4534,7 +4534,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -4550,7 +4550,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -4574,7 +4574,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -4582,7 +4582,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -4590,7 +4590,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -4598,7 +4598,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -4606,7 +4606,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -4614,7 +4614,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -4630,7 +4630,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -4638,7 +4638,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -4654,7 +4654,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
@@ -4662,7 +4662,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -4670,7 +4670,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -4686,7 +4686,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -4710,7 +4710,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -4734,7 +4734,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
@@ -4758,7 +4758,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -4766,7 +4766,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -4774,7 +4774,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -4806,7 +4806,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -4814,7 +4814,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -4822,7 +4822,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -4830,7 +4830,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -4854,7 +4854,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -4862,7 +4862,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -4894,7 +4894,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4960,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4976,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -5008,7 +5008,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -5064,7 +5064,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -5080,7 +5080,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5096,7 +5096,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5104,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5120,7 +5120,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -5152,7 +5152,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -5160,7 +5160,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5200,7 +5200,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -5208,7 +5208,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -5216,7 +5216,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5224,7 +5224,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5232,7 +5232,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -5240,7 +5240,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -5256,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5272,7 +5272,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5280,7 +5280,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -5288,7 +5288,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -5296,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -5304,7 +5304,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -5328,7 +5328,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -5400,7 +5400,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5456,7 +5456,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -5464,7 +5464,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5496,7 +5496,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -5520,7 +5520,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
